--- a/Task1.xlsx
+++ b/Task1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="41">
   <si>
     <t>Group</t>
   </si>
@@ -122,6 +122,21 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Dummy 1</t>
+  </si>
+  <si>
+    <t>Dummy 2</t>
+  </si>
+  <si>
+    <t>Dummy 3</t>
+  </si>
+  <si>
+    <t>Dummy 4</t>
+  </si>
+  <si>
+    <t>Dummy 5</t>
   </si>
 </sst>
 </file>
@@ -463,15 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +508,23 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -516,8 +546,23 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>39</v>
+      </c>
+      <c r="K2">
+        <v>31</v>
+      </c>
+      <c r="L2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -539,8 +584,23 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>31</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -562,8 +622,23 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -585,8 +660,23 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -608,8 +698,23 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>23</v>
+      </c>
+      <c r="L6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -631,8 +736,23 @@
       <c r="G7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>32</v>
+      </c>
+      <c r="L7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -654,8 +774,23 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>29</v>
+      </c>
+      <c r="J8">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>37</v>
+      </c>
+      <c r="L8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -677,8 +812,23 @@
       <c r="G9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>37</v>
+      </c>
+      <c r="L9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -700,8 +850,23 @@
       <c r="G10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>31</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>36</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -723,8 +888,23 @@
       <c r="G11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>31</v>
+      </c>
+      <c r="I11">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>35</v>
+      </c>
+      <c r="L11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -746,8 +926,23 @@
       <c r="G12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>37</v>
+      </c>
+      <c r="J12">
+        <v>37</v>
+      </c>
+      <c r="K12">
+        <v>19</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -769,8 +964,23 @@
       <c r="G13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>24</v>
+      </c>
+      <c r="K13">
+        <v>23</v>
+      </c>
+      <c r="L13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -792,8 +1002,23 @@
       <c r="G14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -815,8 +1040,23 @@
       <c r="G15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>23</v>
+      </c>
+      <c r="L15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -838,8 +1078,23 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>38</v>
+      </c>
+      <c r="I16">
+        <v>26</v>
+      </c>
+      <c r="J16">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>21</v>
+      </c>
+      <c r="L16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -861,8 +1116,23 @@
       <c r="G17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>27</v>
+      </c>
+      <c r="I17">
+        <v>27</v>
+      </c>
+      <c r="J17">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>26</v>
+      </c>
+      <c r="L17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -884,8 +1154,23 @@
       <c r="G18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>26</v>
+      </c>
+      <c r="I18">
+        <v>28</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -907,8 +1192,23 @@
       <c r="G19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>28</v>
+      </c>
+      <c r="J19">
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -930,8 +1230,23 @@
       <c r="G20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>34</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -953,8 +1268,23 @@
       <c r="G21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>22</v>
+      </c>
+      <c r="I21">
+        <v>31</v>
+      </c>
+      <c r="J21">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>39</v>
+      </c>
+      <c r="L21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1306,23 @@
       <c r="G22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>37</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <v>29</v>
+      </c>
+      <c r="L22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -999,8 +1344,23 @@
       <c r="G23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="I23">
+        <v>12</v>
+      </c>
+      <c r="J23">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <v>27</v>
+      </c>
+      <c r="L23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1022,8 +1382,23 @@
       <c r="G24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>26</v>
+      </c>
+      <c r="I24">
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1045,8 +1420,23 @@
       <c r="G25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>29</v>
+      </c>
+      <c r="I25">
+        <v>29</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>12</v>
+      </c>
+      <c r="L25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1068,8 +1458,23 @@
       <c r="G26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>19</v>
+      </c>
+      <c r="I26">
+        <v>23</v>
+      </c>
+      <c r="J26">
+        <v>32</v>
+      </c>
+      <c r="K26">
+        <v>36</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1091,8 +1496,23 @@
       <c r="G27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>37</v>
+      </c>
+      <c r="I27">
+        <v>27</v>
+      </c>
+      <c r="J27">
+        <v>39</v>
+      </c>
+      <c r="K27">
+        <v>32</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1114,8 +1534,23 @@
       <c r="G28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>22</v>
+      </c>
+      <c r="J28">
+        <v>37</v>
+      </c>
+      <c r="K28">
+        <v>16</v>
+      </c>
+      <c r="L28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1137,8 +1572,23 @@
       <c r="G29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>13</v>
+      </c>
+      <c r="K29">
+        <v>36</v>
+      </c>
+      <c r="L29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1610,23 @@
       <c r="G30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
+      </c>
+      <c r="J30">
+        <v>33</v>
+      </c>
+      <c r="K30">
+        <v>40</v>
+      </c>
+      <c r="L30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1183,8 +1648,23 @@
       <c r="G31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="I31">
+        <v>29</v>
+      </c>
+      <c r="J31">
+        <v>23</v>
+      </c>
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1206,8 +1686,23 @@
       <c r="G32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>19</v>
+      </c>
+      <c r="I32">
+        <v>29</v>
+      </c>
+      <c r="J32">
+        <v>33</v>
+      </c>
+      <c r="K32">
+        <v>24</v>
+      </c>
+      <c r="L32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1229,8 +1724,23 @@
       <c r="G33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>31</v>
+      </c>
+      <c r="I33">
+        <v>20</v>
+      </c>
+      <c r="J33">
+        <v>30</v>
+      </c>
+      <c r="K33">
+        <v>33</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1252,8 +1762,23 @@
       <c r="G34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>40</v>
+      </c>
+      <c r="I34">
+        <v>23</v>
+      </c>
+      <c r="J34">
+        <v>24</v>
+      </c>
+      <c r="K34">
+        <v>12</v>
+      </c>
+      <c r="L34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1275,8 +1800,23 @@
       <c r="G35" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>31</v>
+      </c>
+      <c r="J35">
+        <v>19</v>
+      </c>
+      <c r="K35">
+        <v>37</v>
+      </c>
+      <c r="L35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1298,8 +1838,23 @@
       <c r="G36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>16</v>
+      </c>
+      <c r="I36">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <v>18</v>
+      </c>
+      <c r="K36">
+        <v>39</v>
+      </c>
+      <c r="L36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1321,8 +1876,23 @@
       <c r="G37" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <v>27</v>
+      </c>
+      <c r="K37">
+        <v>26</v>
+      </c>
+      <c r="L37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1344,8 +1914,23 @@
       <c r="G38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>23</v>
+      </c>
+      <c r="J38">
+        <v>32</v>
+      </c>
+      <c r="K38">
+        <v>29</v>
+      </c>
+      <c r="L38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1367,8 +1952,23 @@
       <c r="G39" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>38</v>
+      </c>
+      <c r="I39">
+        <v>12</v>
+      </c>
+      <c r="J39">
+        <v>36</v>
+      </c>
+      <c r="K39">
+        <v>26</v>
+      </c>
+      <c r="L39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1390,8 +1990,23 @@
       <c r="G40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>38</v>
+      </c>
+      <c r="I40">
+        <v>36</v>
+      </c>
+      <c r="J40">
+        <v>15</v>
+      </c>
+      <c r="K40">
+        <v>29</v>
+      </c>
+      <c r="L40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1413,8 +2028,23 @@
       <c r="G41" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>21</v>
+      </c>
+      <c r="I41">
+        <v>18</v>
+      </c>
+      <c r="J41">
+        <v>21</v>
+      </c>
+      <c r="K41">
+        <v>29</v>
+      </c>
+      <c r="L41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1436,8 +2066,23 @@
       <c r="G42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>40</v>
+      </c>
+      <c r="I42">
+        <v>24</v>
+      </c>
+      <c r="J42">
+        <v>40</v>
+      </c>
+      <c r="K42">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1459,8 +2104,23 @@
       <c r="G43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>29</v>
+      </c>
+      <c r="I43">
+        <v>30</v>
+      </c>
+      <c r="J43">
+        <v>22</v>
+      </c>
+      <c r="K43">
+        <v>31</v>
+      </c>
+      <c r="L43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1481,6 +2141,21 @@
       </c>
       <c r="G44" t="s">
         <v>24</v>
+      </c>
+      <c r="H44">
+        <v>18</v>
+      </c>
+      <c r="I44">
+        <v>33</v>
+      </c>
+      <c r="J44">
+        <v>27</v>
+      </c>
+      <c r="K44">
+        <v>25</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
